--- a/Crawdata.xlsx
+++ b/Crawdata.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Web module\crawldata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TECHKIDS\C4T-4\TeamNhi\hackathon_c4t4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -935,9 +935,6 @@
   </si>
   <si>
     <t>Cháo gạo lức tẩm bổ cho người kiệt sức</t>
-  </si>
-  <si>
-    <t>cach lam</t>
   </si>
   <si>
     <t>Bún gạo lức ngâm nước 10p rồi luộc sơ, sau đó trụng nước lạnh cho dai
@@ -1717,16 +1714,19 @@
 Nước muối vừa sôi cho củ cải trắng và củ dền vào nấu khoảng q0 phút. Rồi tiếp tục cho hỗn hợp tôm thịt xay vào. Vớt bọt. Sau đó nấu khoảng 10 phút đến khi củ dền chuyển màu trắng (nước màu tím) rồi cho cà rốt bí đỏ khoai tây tím vào. Hầm tới độ mềm vừa phải nêm nếm ít gia vị tùy theo khẩu vị là dùng dc.
 Món này rất tốt. Có thể thêm nhiều tiêu để giải cảm. Hoặc hầm mềm cho người lớn tuổi suy nhược cơ thể, kiệt sức. Hoặc có thể xay nhuyễn cho thêm 1 muỗng sirô che trẻ tập ăn cũng được.</t>
   </si>
+  <si>
+    <t>cachlam</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -2069,19 +2069,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C84" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="80.28515625" customWidth="1"/>
-    <col min="2" max="2" width="88.42578125" customWidth="1"/>
-    <col min="3" max="3" width="60.7109375" customWidth="1"/>
-    <col min="4" max="4" width="72.5703125" customWidth="1"/>
+    <col min="1" max="1" width="80.25" customWidth="1"/>
+    <col min="2" max="2" width="88.375" customWidth="1"/>
+    <col min="3" max="3" width="60.75" customWidth="1"/>
+    <col min="4" max="4" width="72.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2092,10 +2092,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2106,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2120,10 +2120,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="198" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2134,10 +2134,10 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="126" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="108" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2148,10 +2148,10 @@
         <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -2162,10 +2162,10 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2176,10 +2176,10 @@
         <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2190,10 +2190,10 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2204,10 +2204,10 @@
         <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="285" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -2218,10 +2218,10 @@
         <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -2232,10 +2232,10 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2246,10 +2246,10 @@
         <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>36</v>
       </c>
@@ -2260,10 +2260,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2274,10 +2274,10 @@
         <v>41</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2288,10 +2288,10 @@
         <v>44</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>45</v>
       </c>
@@ -2302,10 +2302,10 @@
         <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="313.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2316,10 +2316,10 @@
         <v>50</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -2330,10 +2330,10 @@
         <v>53</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -2344,10 +2344,10 @@
         <v>53</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -2358,10 +2358,10 @@
         <v>53</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -2372,10 +2372,10 @@
         <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>64</v>
       </c>
@@ -2400,10 +2400,10 @@
         <v>66</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>67</v>
       </c>
@@ -2414,10 +2414,10 @@
         <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
@@ -2428,10 +2428,10 @@
         <v>72</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>73</v>
       </c>
@@ -2442,10 +2442,10 @@
         <v>75</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -2456,10 +2456,10 @@
         <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>79</v>
       </c>
@@ -2470,10 +2470,10 @@
         <v>81</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>82</v>
       </c>
@@ -2484,10 +2484,10 @@
         <v>84</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="125.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>85</v>
       </c>
@@ -2498,10 +2498,10 @@
         <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="408.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="408.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -2512,10 +2512,10 @@
         <v>90</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -2526,10 +2526,10 @@
         <v>93</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2540,10 +2540,10 @@
         <v>96</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>97</v>
       </c>
@@ -2554,10 +2554,10 @@
         <v>99</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -2568,10 +2568,10 @@
         <v>102</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -2582,10 +2582,10 @@
         <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>106</v>
       </c>
@@ -2596,10 +2596,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -2610,10 +2610,10 @@
         <v>111</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>112</v>
       </c>
@@ -2624,10 +2624,10 @@
         <v>114</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>115</v>
       </c>
@@ -2638,10 +2638,10 @@
         <v>117</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -2652,10 +2652,10 @@
         <v>120</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>121</v>
       </c>
@@ -2666,10 +2666,10 @@
         <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>124</v>
       </c>
@@ -2680,10 +2680,10 @@
         <v>126</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>127</v>
       </c>
@@ -2694,10 +2694,10 @@
         <v>129</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>130</v>
       </c>
@@ -2708,10 +2708,10 @@
         <v>132</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>133</v>
       </c>
@@ -2722,10 +2722,10 @@
         <v>135</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -2736,10 +2736,10 @@
         <v>138</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2750,10 +2750,10 @@
         <v>141</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2764,10 +2764,10 @@
         <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>145</v>
       </c>
@@ -2778,10 +2778,10 @@
         <v>147</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="213.75" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>148</v>
       </c>
@@ -2792,10 +2792,10 @@
         <v>150</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>151</v>
       </c>
@@ -2806,10 +2806,10 @@
         <v>153</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>154</v>
       </c>
@@ -2820,10 +2820,10 @@
         <v>156</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>157</v>
       </c>
@@ -2834,10 +2834,10 @@
         <v>159</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="285" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>160</v>
       </c>
@@ -2848,10 +2848,10 @@
         <v>162</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>163</v>
       </c>
@@ -2862,10 +2862,10 @@
         <v>165</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>166</v>
       </c>
@@ -2876,10 +2876,10 @@
         <v>168</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>169</v>
       </c>
@@ -2890,10 +2890,10 @@
         <v>171</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>172</v>
       </c>
@@ -2904,10 +2904,10 @@
         <v>174</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>175</v>
       </c>
@@ -2918,10 +2918,10 @@
         <v>177</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="255" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="242.25" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>178</v>
       </c>
@@ -2932,10 +2932,10 @@
         <v>180</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>181</v>
       </c>
@@ -2946,10 +2946,10 @@
         <v>183</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>184</v>
       </c>
@@ -2960,10 +2960,10 @@
         <v>186</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>187</v>
       </c>
@@ -2974,10 +2974,10 @@
         <v>189</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="285" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>190</v>
       </c>
@@ -2988,10 +2988,10 @@
         <v>192</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>193</v>
       </c>
@@ -3002,10 +3002,10 @@
         <v>195</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>196</v>
       </c>
@@ -3016,10 +3016,10 @@
         <v>198</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>199</v>
       </c>
@@ -3030,10 +3030,10 @@
         <v>201</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>202</v>
       </c>
@@ -3044,10 +3044,10 @@
         <v>204</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="360" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>205</v>
       </c>
@@ -3058,10 +3058,10 @@
         <v>207</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="240" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="228" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -3072,10 +3072,10 @@
         <v>210</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="180" x14ac:dyDescent="0.25">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="156.75" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -3086,10 +3086,10 @@
         <v>213</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="375" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="327.75" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>214</v>
       </c>
@@ -3100,10 +3100,10 @@
         <v>216</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>217</v>
       </c>
@@ -3114,10 +3114,10 @@
         <v>219</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>220</v>
       </c>
@@ -3128,10 +3128,10 @@
         <v>222</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="114" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>223</v>
       </c>
@@ -3142,10 +3142,10 @@
         <v>225</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="165" x14ac:dyDescent="0.25">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>226</v>
       </c>
@@ -3156,10 +3156,10 @@
         <v>228</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>229</v>
       </c>
@@ -3170,10 +3170,10 @@
         <v>231</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="171" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>232</v>
       </c>
@@ -3184,10 +3184,10 @@
         <v>234</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="128.25" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>235</v>
       </c>
@@ -3198,10 +3198,10 @@
         <v>237</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="142.5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>238</v>
       </c>
@@ -3212,10 +3212,10 @@
         <v>240</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="185.25" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -3226,10 +3226,10 @@
         <v>243</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="300" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="270.75" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>244</v>
       </c>
@@ -3240,10 +3240,10 @@
         <v>246</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="199.5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>247</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>249</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
